--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/6.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/6.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1112633954288129</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.96109171316635</v>
+        <v>-1.961369836994947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.399600166980241</v>
+        <v>0.3990286713061281</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.166323271829919</v>
+        <v>-0.1661293170547132</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1198590999940591</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.039134723280324</v>
+        <v>-2.03952934195818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3361287717544543</v>
+        <v>0.3357182951390029</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1692606498091377</v>
+        <v>-0.1691417152771718</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1401883009422236</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.136335341850955</v>
+        <v>-2.136351809709228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2899095927911632</v>
+        <v>0.2891782978997423</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1883523868327054</v>
+        <v>-0.1882297927766791</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.170544765361666</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.15582718683847</v>
+        <v>-2.15593026343284</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2731148170362287</v>
+        <v>0.2720840510925245</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2149284604806485</v>
+        <v>-0.214532621961439</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2022316059285676</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.087552666283292</v>
+        <v>-2.087570353982918</v>
       </c>
       <c r="F6" t="n">
-        <v>0.277040876432456</v>
+        <v>0.2762607878868952</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2249891020436078</v>
+        <v>-0.2244596908961904</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2222283117395416</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.919009626153441</v>
+        <v>-1.919346302367006</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3530119860075173</v>
+        <v>0.352097714913072</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.198131245043007</v>
+        <v>-0.1977469950166557</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2187139692237409</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.549459907953146</v>
+        <v>-1.549889902030253</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3985395149233761</v>
+        <v>0.3978246878902274</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1763387792627989</v>
+        <v>-0.1758185169255328</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.185686383739761</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.156387988933386</v>
+        <v>-1.156545958388663</v>
       </c>
       <c r="F9" t="n">
-        <v>0.377127029724782</v>
+        <v>0.3762237372025182</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1450004449708069</v>
+        <v>-0.1445619120042251</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1213569970952956</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6971378467244307</v>
+        <v>-0.6971506550586424</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3704294907734116</v>
+        <v>0.3692822299804485</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09725219487090848</v>
+        <v>-0.09678621547387298</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02377266033935256</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.07381294326348062</v>
+        <v>-0.07351774165593457</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3537640182019477</v>
+        <v>0.3524209728717485</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0209468487649892</v>
+        <v>-0.02037352332884603</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1060730315459494</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5978445143056925</v>
+        <v>0.5989563996994042</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2816274799216014</v>
+        <v>0.2797562432853383</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07461308318518953</v>
+        <v>0.07524618084765401</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2653288692088586</v>
       </c>
       <c r="E13" t="n">
-        <v>1.28359601887316</v>
+        <v>1.28521840787331</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1717460005607015</v>
+        <v>0.169633845257123</v>
       </c>
       <c r="G13" t="n">
-        <v>0.205423990568699</v>
+        <v>0.206373027141719</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4463873343398855</v>
       </c>
       <c r="E14" t="n">
-        <v>1.956474537637182</v>
+        <v>1.9584256738821</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0170695830229018</v>
+        <v>-0.01971480899795813</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3537701174087152</v>
+        <v>0.3547594087464005</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6375292534086315</v>
       </c>
       <c r="E15" t="n">
-        <v>2.631048635882565</v>
+        <v>2.633154082058699</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2560767589374563</v>
+        <v>-0.2590257254095331</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5089290582080072</v>
+        <v>0.5101806154366941</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8315546632761625</v>
       </c>
       <c r="E16" t="n">
-        <v>3.25805807015175</v>
+        <v>3.259920767898538</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4955663821073185</v>
+        <v>-0.498995356151996</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6783833198289201</v>
+        <v>0.6800075385911001</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.022148639232978</v>
       </c>
       <c r="E17" t="n">
-        <v>3.8745183163959</v>
+        <v>3.8755649402772</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7733334071085353</v>
+        <v>-0.7774814776310988</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8364046183641907</v>
+        <v>0.837868427988386</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.206001915190709</v>
       </c>
       <c r="E18" t="n">
-        <v>4.423299324665379</v>
+        <v>4.423723829456396</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.128215752874393</v>
+        <v>-1.133064012333863</v>
       </c>
       <c r="G18" t="n">
-        <v>1.042474857892997</v>
+        <v>1.044056992128481</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.381175649881816</v>
       </c>
       <c r="E19" t="n">
-        <v>4.879051571793184</v>
+        <v>4.87909182655785</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.470656936675943</v>
+        <v>-1.475387481444801</v>
       </c>
       <c r="G19" t="n">
-        <v>1.239967173024018</v>
+        <v>1.241650554091842</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.543982859340075</v>
       </c>
       <c r="E20" t="n">
-        <v>5.261292519435253</v>
+        <v>5.260789944797613</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.756814640427183</v>
+        <v>-1.762044100309621</v>
       </c>
       <c r="G20" t="n">
-        <v>1.43035269242957</v>
+        <v>1.431755509986091</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.692717669158269</v>
       </c>
       <c r="E21" t="n">
-        <v>5.629771216927178</v>
+        <v>5.628292769206741</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.102795803836579</v>
+        <v>-2.108017944670896</v>
       </c>
       <c r="G21" t="n">
-        <v>1.614859796352625</v>
+        <v>1.616561475040752</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.825201828283565</v>
       </c>
       <c r="E22" t="n">
-        <v>5.888269017987893</v>
+        <v>5.886109898792205</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.461451728829477</v>
+        <v>-2.466718393873197</v>
       </c>
       <c r="G22" t="n">
-        <v>1.851484622103802</v>
+        <v>1.853379035725782</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.936702344116661</v>
       </c>
       <c r="E23" t="n">
-        <v>6.007676848398921</v>
+        <v>6.004879752175355</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.740039707061597</v>
+        <v>-2.745513135214734</v>
       </c>
       <c r="G23" t="n">
-        <v>1.973358361810922</v>
+        <v>1.975202152016732</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.024867376625421</v>
       </c>
       <c r="E24" t="n">
-        <v>6.090600443768234</v>
+        <v>6.087563038798028</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.987462873434259</v>
+        <v>-2.993174475611667</v>
       </c>
       <c r="G24" t="n">
-        <v>2.116988581978323</v>
+        <v>2.118689650745773</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.087368260148399</v>
       </c>
       <c r="E25" t="n">
-        <v>6.153883373504905</v>
+        <v>6.150511732003842</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.187185058559472</v>
+        <v>-3.192675564491558</v>
       </c>
       <c r="G25" t="n">
-        <v>2.198683187183987</v>
+        <v>2.200245803957816</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.120550907795169</v>
       </c>
       <c r="E26" t="n">
-        <v>6.17842414185454</v>
+        <v>6.174674349533893</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.350703267193934</v>
+        <v>-3.355973591761714</v>
       </c>
       <c r="G26" t="n">
-        <v>2.295639837483919</v>
+        <v>2.2969938613863</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.123738810905496</v>
       </c>
       <c r="E27" t="n">
-        <v>6.125890454124876</v>
+        <v>6.122111385611746</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.493256672406535</v>
+        <v>-3.498501380305892</v>
       </c>
       <c r="G27" t="n">
-        <v>2.295903323216274</v>
+        <v>2.297230510608878</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.096552674880406</v>
       </c>
       <c r="E28" t="n">
-        <v>5.983423962608711</v>
+        <v>5.979064249611317</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.540928987382179</v>
+        <v>-3.546467067127051</v>
       </c>
       <c r="G28" t="n">
-        <v>2.31013399244616</v>
+        <v>2.311483136983127</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.038852668537236</v>
       </c>
       <c r="E29" t="n">
-        <v>5.825732631159561</v>
+        <v>5.821009405438825</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.531448075422469</v>
+        <v>-3.536407340445107</v>
       </c>
       <c r="G29" t="n">
-        <v>2.279479379232803</v>
+        <v>2.280827303928416</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.953621058221577</v>
       </c>
       <c r="E30" t="n">
-        <v>5.669390444247378</v>
+        <v>5.663681586713016</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.555326164956817</v>
+        <v>-3.559782855341815</v>
       </c>
       <c r="G30" t="n">
-        <v>2.235533374631752</v>
+        <v>2.236458014377702</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.84406911910114</v>
       </c>
       <c r="E31" t="n">
-        <v>5.495964379179482</v>
+        <v>5.490173792274436</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.463834403920548</v>
+        <v>-3.467854391100994</v>
       </c>
       <c r="G31" t="n">
-        <v>2.097511985007727</v>
+        <v>2.098529942617219</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.71423779714397</v>
       </c>
       <c r="E32" t="n">
-        <v>5.215297181360328</v>
+        <v>5.209238229357513</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.3787266826078</v>
+        <v>-3.382570402712667</v>
       </c>
       <c r="G32" t="n">
-        <v>1.989099804557113</v>
+        <v>1.989925027232753</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.571710599476813</v>
       </c>
       <c r="E33" t="n">
-        <v>4.856227120227919</v>
+        <v>4.849949816622828</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.234965329494899</v>
+        <v>-3.238685845623062</v>
       </c>
       <c r="G33" t="n">
-        <v>1.842301656394683</v>
+        <v>1.843053688589114</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.422745798027819</v>
       </c>
       <c r="E34" t="n">
-        <v>4.493021796907157</v>
+        <v>4.486589573450172</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.078320012006373</v>
+        <v>-3.081831935263088</v>
       </c>
       <c r="G34" t="n">
-        <v>1.661474813835126</v>
+        <v>1.662103032132177</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.272919568168456</v>
       </c>
       <c r="E35" t="n">
-        <v>4.121400788088626</v>
+        <v>4.114656285245146</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.937619240849393</v>
+        <v>-2.940861579166986</v>
       </c>
       <c r="G35" t="n">
-        <v>1.528529794003675</v>
+        <v>1.52878779044994</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.128817975360756</v>
       </c>
       <c r="E36" t="n">
-        <v>3.734508585365677</v>
+        <v>3.728206884933516</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.792730144405185</v>
+        <v>-2.795430263241149</v>
       </c>
       <c r="G36" t="n">
-        <v>1.444510171178246</v>
+        <v>1.444770607307218</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9932270959401385</v>
       </c>
       <c r="E37" t="n">
-        <v>3.408627967779189</v>
+        <v>3.4027178364215</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.710049907385895</v>
+        <v>-2.712628652007186</v>
       </c>
       <c r="G37" t="n">
-        <v>1.33053551415569</v>
+        <v>1.330694093531645</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8696240177637895</v>
       </c>
       <c r="E38" t="n">
-        <v>3.062995678996893</v>
+        <v>3.057139220658758</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.62570702660179</v>
+        <v>-2.628243076775708</v>
       </c>
       <c r="G38" t="n">
-        <v>1.205446882561431</v>
+        <v>1.205305380964425</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7595727573600761</v>
       </c>
       <c r="E39" t="n">
-        <v>2.714012486016542</v>
+        <v>2.707844968133266</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.499655940179622</v>
+        <v>-2.502308485202799</v>
       </c>
       <c r="G39" t="n">
-        <v>1.071250305501293</v>
+        <v>1.071219199546779</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6619835110179444</v>
       </c>
       <c r="E40" t="n">
-        <v>2.405247462460959</v>
+        <v>2.39893234377391</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.420363812519668</v>
+        <v>-2.422884004755991</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9697253493325184</v>
+        <v>0.9696649671855203</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5765795862602269</v>
       </c>
       <c r="E41" t="n">
-        <v>2.052024100935856</v>
+        <v>2.046092012433805</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.334788891968532</v>
+        <v>-2.336904096875493</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8252247723593987</v>
+        <v>0.8250576540939698</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5015281645115132</v>
       </c>
       <c r="E42" t="n">
-        <v>1.720561489315771</v>
+        <v>1.715083791717896</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.244960994538431</v>
+        <v>-2.24689871252846</v>
       </c>
       <c r="G42" t="n">
-        <v>0.738079915986313</v>
+        <v>0.7377444596141015</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4329091604639042</v>
       </c>
       <c r="E43" t="n">
-        <v>1.440667060994057</v>
+        <v>1.435178384824001</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.169536373889736</v>
+        <v>-2.171555821250449</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6285814668104108</v>
+        <v>0.6283765334630236</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3696375008207089</v>
       </c>
       <c r="E44" t="n">
-        <v>1.176455523033566</v>
+        <v>1.171052845678931</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.084055381122819</v>
+        <v>-2.086017495939917</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5527055048609222</v>
+        <v>0.5526396334278334</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3091414291080312</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9350458695733006</v>
+        <v>0.9297724954021368</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.975823127271846</v>
+        <v>-1.977696803590816</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4601787084362116</v>
+        <v>0.4598524008741514</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2495407806332322</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7446414426267686</v>
+        <v>0.7393570898834234</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.886763119973771</v>
+        <v>-1.888653264151013</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3656184364752229</v>
+        <v>0.3651213511236733</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1910639309621741</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5439513133875573</v>
+        <v>0.5389158082803254</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.802189689173855</v>
+        <v>-1.8042292639169</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3164722481842179</v>
+        <v>0.3160514029172617</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1330687231061831</v>
       </c>
       <c r="E48" t="n">
-        <v>0.413803389779673</v>
+        <v>0.4088740108701952</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.700525671090782</v>
+        <v>-1.702444481539831</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2271676626947673</v>
+        <v>0.2269169852966238</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.07590919179697765</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2909568265931397</v>
+        <v>0.2863256988945916</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.559300978072476</v>
+        <v>-1.561336283370784</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1562241292581402</v>
+        <v>0.1558325601836679</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.01989982365194553</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1698503670973685</v>
+        <v>0.165082617167229</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.454406820085345</v>
+        <v>-1.456228043226115</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1321700776085503</v>
+        <v>0.1317193462284334</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.03534032847343255</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004982099044924236</v>
+        <v>0.0004863737366143001</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.347959804055213</v>
+        <v>-1.350004258163673</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08110873839255633</v>
+        <v>0.08061348280303691</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.08974064461096493</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.06487333590438434</v>
+        <v>-0.0691574187378627</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.260318472251255</v>
+        <v>-1.262332430325877</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04479467121965372</v>
+        <v>0.04437321603202081</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1429766630054583</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1882627284932235</v>
+        <v>-0.1924534934631593</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.159857217742728</v>
+        <v>-1.161795545653434</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0008121473841823152</v>
+        <v>-0.00136351567596256</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1957844105721425</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3090941137637812</v>
+        <v>-0.3131299588818231</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.087096120689392</v>
+        <v>-1.089175340276426</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.08083435009420427</v>
+        <v>-0.08118017511792042</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2481381368502142</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3817557937468076</v>
+        <v>-0.3855452309114433</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.017498682186348</v>
+        <v>-1.01971147440159</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1027268428653991</v>
+        <v>-0.1032647929022908</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3002588363757168</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4362644046277815</v>
+        <v>-0.4403411144311656</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9472034944291041</v>
+        <v>-0.9495193632387166</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1471241887672437</v>
+        <v>-0.1476475007078935</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3533749906922068</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5229249839835294</v>
+        <v>-0.5265229060556661</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9357595527712803</v>
+        <v>-0.9381791080959399</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1952072853186768</v>
+        <v>-0.1956702151123286</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4077192420046524</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5961965846433038</v>
+        <v>-0.5996743523421212</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.863262551370976</v>
+        <v>-0.8654570459659154</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.233536530407555</v>
+        <v>-0.2339872617876718</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4630581895722274</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7046520694619667</v>
+        <v>-0.7080340796145347</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8475119598146341</v>
+        <v>-0.849739390126118</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2703257257876444</v>
+        <v>-0.2710051774215417</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5195094894152997</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8386644504777268</v>
+        <v>-0.8417152737028205</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8493960047851088</v>
+        <v>-0.851758227566154</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2989816289432984</v>
+        <v>-0.2996269250192978</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5756508300366913</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9366909016446746</v>
+        <v>-0.9397075693118705</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8559313048364643</v>
+        <v>-0.8581904510231391</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3504973590634696</v>
+        <v>-0.3512676888782024</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6306202802774826</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.037555923641208</v>
+        <v>-1.040566492101636</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8166670513501313</v>
+        <v>-0.8191567475526169</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3458015797731863</v>
+        <v>-0.3463852738608342</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6840024576278497</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.137353584453432</v>
+        <v>-1.13975667191982</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8319016500139442</v>
+        <v>-0.8345480958303541</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3946519565359685</v>
+        <v>-0.3954271657161153</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7340903825035398</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.17440382588317</v>
+        <v>-1.177004527648823</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8425429360611676</v>
+        <v>-0.845485803326477</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4123719819575299</v>
+        <v>-0.4130178879542061</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7806313981451362</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.260501448454279</v>
+        <v>-1.262870990283445</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8878752903604671</v>
+        <v>-0.8907047123799013</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4604105542995604</v>
+        <v>-0.4611308706187999</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8227531749450464</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.318947097303662</v>
+        <v>-1.321234299841467</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9067779519742428</v>
+        <v>-0.909542112481265</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5086888254675529</v>
+        <v>-0.5093396108296431</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8588493953105726</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.370506741712559</v>
+        <v>-1.372567053758614</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9677242755982925</v>
+        <v>-0.9704994146774962</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5446375501550834</v>
+        <v>-0.5452371021803268</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8886589541064798</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.435151624320409</v>
+        <v>-1.436852693087859</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.027922836472649</v>
+        <v>-1.030702854917267</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5883298277546073</v>
+        <v>-0.5890477043911398</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.9115893480244843</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.490154880870225</v>
+        <v>-1.491813255190303</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.100883987507959</v>
+        <v>-1.103795138898077</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5638872566339289</v>
+        <v>-0.5645801265227147</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.9269627375801497</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.537507292450914</v>
+        <v>-1.539341323925896</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.140039065193154</v>
+        <v>-1.142892274118981</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5995121134421062</v>
+        <v>-0.600120204356824</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9351897028596863</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.539514541398092</v>
+        <v>-1.541374189541497</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.248948940915994</v>
+        <v>-1.251649059751958</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6184251437073868</v>
+        <v>-0.6188612369912616</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.935744674305049</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.616490800248434</v>
+        <v>-1.617808838830887</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.322778009074316</v>
+        <v>-1.325789797376098</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.611060351535654</v>
+        <v>-0.6115488979977292</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.928093115758047</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.542240276902479</v>
+        <v>-1.543401565871008</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.429710521963139</v>
+        <v>-1.433035199572093</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.653706615174555</v>
+        <v>-0.6543031175964146</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9121805613904184</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.495690520932391</v>
+        <v>-1.496773740054295</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.536092886401536</v>
+        <v>-1.539402315993571</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6522556138845713</v>
+        <v>-0.6527709968564234</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8870007337340443</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.432130687208476</v>
+        <v>-1.433183410296543</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.580148676724401</v>
+        <v>-1.583670358711945</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6574753150361812</v>
+        <v>-0.6579754499911146</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8519557591632937</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.342914540217153</v>
+        <v>-1.343668402173614</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.64121332495974</v>
+        <v>-1.644830154572856</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6127223853797924</v>
+        <v>-0.6132639949407447</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.807364400935328</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.245263800187082</v>
+        <v>-1.246232354221758</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.686844540390646</v>
+        <v>-1.690347924757887</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5861865664965147</v>
+        <v>-0.5866677939104689</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7527563765459558</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.123131454113021</v>
+        <v>-1.123795047809323</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.740989028627601</v>
+        <v>-1.744546695935073</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5665471207052272</v>
+        <v>-0.5671546016992682</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6883701036214992</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8724101416808433</v>
+        <v>-0.8733866246843169</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.776560822336902</v>
+        <v>-1.780472243636887</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4827891538501234</v>
+        <v>-0.4833027070599453</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6148738172235657</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6902207363294309</v>
+        <v>-0.6909447121727309</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.832014810266835</v>
+        <v>-1.835992712920586</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4556745202446117</v>
+        <v>-0.4560050972514092</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5323038508623075</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3918536404710484</v>
+        <v>-0.3923397472504166</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.814134375707289</v>
+        <v>-1.818223893844885</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4261195940114311</v>
+        <v>-0.4267539115152491</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4421860231866481</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1333576691723633</v>
+        <v>-0.1340011354863325</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.843533162247222</v>
+        <v>-1.847519603790447</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3181014223179965</v>
+        <v>-0.3188638231639316</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3465346984942394</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1654711366383175</v>
+        <v>0.1650832270879057</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.825172720115075</v>
+        <v>-1.829064623953405</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2654048857676411</v>
+        <v>-0.2661032449425176</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2473149470581626</v>
       </c>
       <c r="E84" t="n">
-        <v>0.502274213704009</v>
+        <v>0.5017277247776428</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.793528205643356</v>
+        <v>-1.796858982459077</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1622008179757789</v>
+        <v>-0.1628662414341111</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1486247817524578</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7818295261294511</v>
+        <v>0.7813946526869298</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.746381947251408</v>
+        <v>-1.749535237150195</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07458510284024367</v>
+        <v>-0.07531029852489711</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05331468570572314</v>
       </c>
       <c r="E86" t="n">
-        <v>1.051859707346119</v>
+        <v>1.051571214866017</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.618918894462568</v>
+        <v>-1.621705012113953</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.02421602359235879</v>
+        <v>-0.02494243911836573</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03484267538481148</v>
       </c>
       <c r="E87" t="n">
-        <v>1.302434638815877</v>
+        <v>1.302473063818512</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.473949898409706</v>
+        <v>-1.476567677954309</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05507610406759573</v>
+        <v>0.05421428615135072</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1107972991456855</v>
       </c>
       <c r="E88" t="n">
-        <v>1.56568372194846</v>
+        <v>1.565978313635329</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.37381129193918</v>
+        <v>-1.376032623043896</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08637052407086183</v>
+        <v>0.08562459108319896</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1700192385296658</v>
       </c>
       <c r="E89" t="n">
-        <v>1.774390648562848</v>
+        <v>1.774918229948234</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.211558973669308</v>
+        <v>-1.213170384097276</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1311313826960483</v>
+        <v>0.130606850914045</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2074998468415938</v>
       </c>
       <c r="E90" t="n">
-        <v>1.949298210954565</v>
+        <v>1.95033812570842</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.044892049541134</v>
+        <v>-1.045969779376947</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1806545019652836</v>
+        <v>0.1802800106697603</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2207855940198601</v>
       </c>
       <c r="E91" t="n">
-        <v>2.068717629858451</v>
+        <v>2.069865500572091</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8120340938895531</v>
+        <v>-0.8129770312558056</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1752341369110236</v>
+        <v>0.1747748666414324</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.209586086390834</v>
       </c>
       <c r="E92" t="n">
-        <v>2.209815459375993</v>
+        <v>2.210984067392642</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6319446454281842</v>
+        <v>-0.632414894269957</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1887603477592653</v>
+        <v>0.1881797032750012</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1758539286967337</v>
       </c>
       <c r="E93" t="n">
-        <v>2.199838376945748</v>
+        <v>2.201391234988749</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4069589359513908</v>
+        <v>-0.4071986347773529</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1532745528653865</v>
+        <v>0.1525536266254703</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1247653761562469</v>
       </c>
       <c r="E94" t="n">
-        <v>2.218281158369256</v>
+        <v>2.220126778337096</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2557876565366777</v>
+        <v>-0.2558931728137551</v>
       </c>
       <c r="G94" t="n">
-        <v>0.112370222679278</v>
+        <v>0.1115340214314565</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06562279677246437</v>
       </c>
       <c r="E95" t="n">
-        <v>2.177658001615129</v>
+        <v>2.179541436664926</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1177101542103919</v>
+        <v>-0.1174765545911973</v>
       </c>
       <c r="G95" t="n">
-        <v>0.07982302560597143</v>
+        <v>0.07891363387694007</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.009169739681173255</v>
       </c>
       <c r="E96" t="n">
-        <v>2.070048476775115</v>
+        <v>2.071795899513998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0008767229697330571</v>
+        <v>0.00156044404836763</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03205159852035654</v>
+        <v>0.03123857425825138</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03228014807364136</v>
       </c>
       <c r="E97" t="n">
-        <v>1.899157242039784</v>
+        <v>1.900657646904584</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05070358273598891</v>
+        <v>0.05164834986427164</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03880768985669478</v>
+        <v>0.03772386081411348</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05190250733838236</v>
       </c>
       <c r="E98" t="n">
-        <v>1.697127117073757</v>
+        <v>1.698554941378024</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08771722892512154</v>
+        <v>0.08860466350978997</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01661206650915621</v>
+        <v>0.01569230612862013</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04931617324262718</v>
       </c>
       <c r="E99" t="n">
-        <v>1.501534704850806</v>
+        <v>1.502492890233977</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1112815142712828</v>
+        <v>0.1121921258416676</v>
       </c>
       <c r="G99" t="n">
-        <v>0.008329343718917578</v>
+        <v>0.007330903571081006</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.03454418841526522</v>
       </c>
       <c r="E100" t="n">
-        <v>1.361761623043161</v>
+        <v>1.362518534603005</v>
       </c>
       <c r="F100" t="n">
-        <v>0.131531490659995</v>
+        <v>0.1325360300145991</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.02253691196927139</v>
+        <v>-0.02361891124982245</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01978510579352937</v>
       </c>
       <c r="E101" t="n">
-        <v>1.197936319347956</v>
+        <v>1.198779229723221</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1639646325667498</v>
+        <v>0.1648630457235997</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.05071463731435492</v>
+        <v>-0.05173198500317068</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.01931151861320797</v>
       </c>
       <c r="E102" t="n">
-        <v>1.03263500761502</v>
+        <v>1.033084519153783</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1477065870073535</v>
+        <v>0.1487678489848951</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06212686309698783</v>
+        <v>-0.06322289055310409</v>
       </c>
     </row>
   </sheetData>
